--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt2b-Fzd4.xlsx
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.146258333333333</v>
+        <v>1.009582666666667</v>
       </c>
       <c r="H2">
-        <v>6.438775</v>
+        <v>3.028748</v>
       </c>
       <c r="I2">
-        <v>0.3745961416936294</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="J2">
-        <v>0.3745961416936293</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N2">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P2">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q2">
-        <v>48.11286622158334</v>
+        <v>26.786380576912</v>
       </c>
       <c r="R2">
-        <v>433.01579599425</v>
+        <v>241.077425192208</v>
       </c>
       <c r="S2">
-        <v>0.1494060134148866</v>
+        <v>0.08929228007192386</v>
       </c>
       <c r="T2">
-        <v>0.1494060134148866</v>
+        <v>0.08929228007192386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.146258333333333</v>
+        <v>1.009582666666667</v>
       </c>
       <c r="H3">
-        <v>6.438775</v>
+        <v>3.028748</v>
       </c>
       <c r="I3">
-        <v>0.3745961416936294</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="J3">
-        <v>0.3745961416936293</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>50.345671</v>
       </c>
       <c r="O3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P3">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q3">
-        <v>36.01827197700278</v>
+        <v>16.94270559443422</v>
       </c>
       <c r="R3">
-        <v>324.164447793025</v>
+        <v>152.484350349908</v>
       </c>
       <c r="S3">
-        <v>0.1118483858640508</v>
+        <v>0.05647843346250168</v>
       </c>
       <c r="T3">
-        <v>0.1118483858640508</v>
+        <v>0.05647843346250168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.146258333333333</v>
+        <v>1.009582666666667</v>
       </c>
       <c r="H4">
-        <v>6.438775</v>
+        <v>3.028748</v>
       </c>
       <c r="I4">
-        <v>0.3745961416936294</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="J4">
-        <v>0.3745961416936293</v>
+        <v>0.2254436189979109</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N4">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P4">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q4">
-        <v>36.49917406588055</v>
+        <v>23.90070861326666</v>
       </c>
       <c r="R4">
-        <v>328.492566592925</v>
+        <v>215.1063775194</v>
       </c>
       <c r="S4">
-        <v>0.1133417424146919</v>
+        <v>0.07967290546348535</v>
       </c>
       <c r="T4">
-        <v>0.1133417424146919</v>
+        <v>0.07967290546348535</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,40 +726,40 @@
         <v>5.899012</v>
       </c>
       <c r="I5">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="J5">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N5">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P5">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q5">
-        <v>44.07956097169334</v>
+        <v>52.171121684528</v>
       </c>
       <c r="R5">
-        <v>396.71604874524</v>
+        <v>469.540095160752</v>
       </c>
       <c r="S5">
-        <v>0.1368812958996978</v>
+        <v>0.1739122012302244</v>
       </c>
       <c r="T5">
-        <v>0.1368812958996978</v>
+        <v>0.1739122012302244</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>5.899012</v>
       </c>
       <c r="I6">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="J6">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>50.345671</v>
       </c>
       <c r="O6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P6">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q6">
         <v>32.99885748633911</v>
@@ -818,10 +818,10 @@
         <v>296.989717377052</v>
       </c>
       <c r="S6">
-        <v>0.1024721271348457</v>
+        <v>0.1100015441154229</v>
       </c>
       <c r="T6">
-        <v>0.1024721271348457</v>
+        <v>0.1100015441154229</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>5.899012</v>
       </c>
       <c r="I7">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="J7">
-        <v>0.3431937185263377</v>
+        <v>0.4390905462561113</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N7">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P7">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q7">
-        <v>33.43944551637822</v>
+        <v>46.55077507873333</v>
       </c>
       <c r="R7">
-        <v>300.955009647404</v>
+        <v>418.9569757085999</v>
       </c>
       <c r="S7">
-        <v>0.1038402954917941</v>
+        <v>0.1551768009104639</v>
       </c>
       <c r="T7">
-        <v>0.1038402954917941</v>
+        <v>0.1551768009104639</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,46 +906,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.616930333333333</v>
+        <v>1.502284666666667</v>
       </c>
       <c r="H8">
-        <v>4.850791</v>
+        <v>4.506854000000001</v>
       </c>
       <c r="I8">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="J8">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>22.41709</v>
+        <v>26.532132</v>
       </c>
       <c r="N8">
-        <v>67.25127000000001</v>
+        <v>79.596396</v>
       </c>
       <c r="O8">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233649</v>
       </c>
       <c r="P8">
-        <v>0.3988455747018376</v>
+        <v>0.3960736634233648</v>
       </c>
       <c r="Q8">
-        <v>36.24687280606334</v>
+        <v>39.85881507757601</v>
       </c>
       <c r="R8">
-        <v>326.22185525457</v>
+        <v>358.7293356981841</v>
       </c>
       <c r="S8">
-        <v>0.1125582653872532</v>
+        <v>0.1328691821212166</v>
       </c>
       <c r="T8">
-        <v>0.1125582653872532</v>
+        <v>0.1328691821212165</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.616930333333333</v>
+        <v>1.502284666666667</v>
       </c>
       <c r="H9">
-        <v>4.850791</v>
+        <v>4.506854000000001</v>
       </c>
       <c r="I9">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="J9">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>50.345671</v>
       </c>
       <c r="O9">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="P9">
-        <v>0.2985839238983091</v>
+        <v>0.2505213219764053</v>
       </c>
       <c r="Q9">
-        <v>27.13514753064011</v>
+        <v>25.21117652544823</v>
       </c>
       <c r="R9">
-        <v>244.216327775761</v>
+        <v>226.900588729034</v>
       </c>
       <c r="S9">
-        <v>0.08426341089941254</v>
+        <v>0.0840413443984807</v>
       </c>
       <c r="T9">
-        <v>0.08426341089941256</v>
+        <v>0.0840413443984807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.616930333333333</v>
+        <v>1.502284666666667</v>
       </c>
       <c r="H10">
-        <v>4.850791</v>
+        <v>4.506854000000001</v>
       </c>
       <c r="I10">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="J10">
-        <v>0.282210139780033</v>
+        <v>0.3354658347459779</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.00595566666667</v>
+        <v>23.67385</v>
       </c>
       <c r="N10">
-        <v>51.017867</v>
+        <v>71.02154999999999</v>
       </c>
       <c r="O10">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="P10">
-        <v>0.3025705013998533</v>
+        <v>0.3534050146002298</v>
       </c>
       <c r="Q10">
-        <v>27.49744556475522</v>
+        <v>35.56486185596667</v>
       </c>
       <c r="R10">
-        <v>247.477010082797</v>
+        <v>320.0837567037</v>
       </c>
       <c r="S10">
-        <v>0.08538846349336726</v>
+        <v>0.1185553082262806</v>
       </c>
       <c r="T10">
-        <v>0.08538846349336726</v>
+        <v>0.1185553082262806</v>
       </c>
     </row>
   </sheetData>
